--- a/PythonResources/Data/Consumption/Sympheny/base_1692_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1692_coo.xlsx
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>30.09986102571347</v>
+        <v>30.09986102571346</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>52.28680400757062</v>
+        <v>52.28680400757061</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>8.260324453085483</v>
+        <v>8.260324453085481</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.134096412165731</v>
+        <v>2.13409641216573</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.2618759711641544</v>
+        <v>0.2618759711641543</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.1638050233548311</v>
+        <v>0.163805023354831</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.6115103064292167</v>
+        <v>0.6115103064292166</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>47.6120278698835</v>
+        <v>47.61202786988349</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>17.70694185646436</v>
+        <v>17.70694185646435</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>14.5251868181336</v>
+        <v>14.52518681813359</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>13.08198779534967</v>
+        <v>13.08198779534966</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>8.314747744964894</v>
+        <v>8.314747744964892</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>0.1361344281685815</v>
+        <v>0.1361344281685814</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>0.1458444578215092</v>
+        <v>0.1458444578215091</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>0.5599649721494593</v>
+        <v>0.5599649721494592</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>4.856626717176484</v>
+        <v>4.856626717176483</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>0.1948796386551322</v>
+        <v>0.1948796386551321</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>0.3614034820356246</v>
+        <v>0.3614034820356245</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>4.008303288667354</v>
+        <v>4.008303288667353</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>4.824183753196673</v>
+        <v>4.824183753196672</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>36.65439480537446</v>
+        <v>36.65439480537445</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>44.61860028099652</v>
+        <v>44.61860028099651</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>4.937895316197275</v>
+        <v>4.937895316197274</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>0.2414626941082757</v>
+        <v>0.2414626941082756</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9.979303323249738</v>
+        <v>9.979303323249736</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>6.030346919911306</v>
+        <v>6.030346919911305</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>2.79541707232583</v>
+        <v>2.795417072325829</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>34.86080004876703</v>
+        <v>34.86080004876702</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>62.82886233925787</v>
+        <v>62.82886233925786</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>3.305313788230385</v>
+        <v>3.305313788230384</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>43.56647525220229</v>
+        <v>43.56647525220228</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>40.79167865815667</v>
+        <v>40.79167865815666</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>14.75589233976781</v>
+        <v>14.7558923397678</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>28.85929131906</v>
+        <v>28.85929131905999</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>0.1552746046325153</v>
+        <v>0.1552746046325152</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>17.80854958556825</v>
+        <v>17.80854958556824</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>0.1702092116916588</v>
+        <v>0.1702092116916587</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>0.0762430168498263</v>
+        <v>0.07624301684982621</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>0.2388728253396254</v>
+        <v>0.2388728253396253</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>0.2395149439853324</v>
+        <v>0.2395149439853323</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>0.0818163487920491</v>
+        <v>0.08181634879204901</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>25.41767019074822</v>
+        <v>25.41767019074821</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>6.599520184095504</v>
+        <v>6.599520184095503</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>0.1599593451855169</v>
+        <v>0.1599593451855168</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>0.1092601069943748</v>
+        <v>0.1092601069943747</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>1.551884417471489</v>
+        <v>1.551884417471488</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>5.861450080330772</v>
+        <v>5.861450080330771</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>18.39627424649971</v>
+        <v>18.3962742464997</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>26.54212515188407</v>
+        <v>26.54212515188406</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>28.59801848809341</v>
+        <v>28.5980184880934</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>0.8615585166150765</v>
+        <v>0.8615585166150764</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>5.792812843076286</v>
+        <v>5.792812843076285</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>0.1535862223787873</v>
+        <v>0.1535862223787872</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>0.0099556231833259</v>
+        <v>0.009955623183325799</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>811</v>
       </c>
       <c r="B811">
-        <v>0.0789240307115003</v>
+        <v>0.0789240307115002</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>0.1243986914964266</v>
+        <v>0.1243986914964265</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>3.518435047544915</v>
+        <v>3.518435047544914</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>4.370011564583186</v>
+        <v>4.370011564583185</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>0.0574334245175025</v>
+        <v>0.0574334245175024</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>0.0177268120728856</v>
+        <v>0.0177268120728855</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>0.1711766391902799</v>
+        <v>0.1711766391902798</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>0.1786833607745516</v>
+        <v>0.1786833607745515</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>0.3241043309451952</v>
+        <v>0.3241043309451951</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>0.0774196970700516</v>
+        <v>0.0774196970700515</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>0.4906741864787574</v>
+        <v>0.4906741864787573</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>0.2025683573544126</v>
+        <v>0.2025683573544125</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>0.1737524405490745</v>
+        <v>0.1737524405490744</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>949</v>
       </c>
       <c r="B949">
-        <v>6.588647248561169</v>
+        <v>6.588647248561168</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>0.6051037735240796</v>
+        <v>0.6051037735240795</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8143,7 +8143,7 @@
         <v>975</v>
       </c>
       <c r="B975">
-        <v>0.5834106552423669</v>
+        <v>0.5834106552423668</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>2.17785191823787</v>
+        <v>2.177851918237869</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>0.2108376497812811</v>
+        <v>0.210837649781281</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>2.506680554326286</v>
+        <v>2.506680554326285</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>8.068861143528025</v>
+        <v>8.068861143528023</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>0.07729543494965919</v>
+        <v>0.0772954349496591</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>0.34183219807382</v>
+        <v>0.3418321980738199</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>2.67628662582038</v>
+        <v>2.676286625820379</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>0.8642108095149617</v>
+        <v>0.8642108095149615</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>0.1918173393721598</v>
+        <v>0.1918173393721597</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>0.1162900019987445</v>
+        <v>0.1162900019987444</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>5.368299443575327</v>
+        <v>5.368299443575326</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>1150</v>
       </c>
       <c r="B1150">
-        <v>0.2604419745719844</v>
+        <v>0.2604419745719843</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>0.2528197829984802</v>
+        <v>0.2528197829984801</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>20.22659080425141</v>
+        <v>20.2265908042514</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>0.1777341036803275</v>
+        <v>0.1777341036803274</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>0.1233615130906041</v>
+        <v>0.123361513090604</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>4.659829514715391</v>
+        <v>4.65982951471539</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9871,7 +9871,7 @@
         <v>1191</v>
       </c>
       <c r="B1191">
-        <v>3.139552808763528</v>
+        <v>3.139552808763527</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>1208</v>
       </c>
       <c r="B1208">
-        <v>0.2110507124263879</v>
+        <v>0.2110507124263878</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>0.6103995671926902</v>
+        <v>0.6103995671926901</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>0.4131393124905119</v>
+        <v>0.4131393124905118</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>6.230279982486075</v>
+        <v>6.230279982486074</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>6.22819917811158</v>
+        <v>6.228199178111579</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>3.47632073928928</v>
+        <v>3.476320739289279</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>0.5064648540418307</v>
+        <v>0.5064648540418306</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>0.2939414596461695</v>
+        <v>0.2939414596461694</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>0.9460098671157298</v>
+        <v>0.9460098671157297</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>0.9009326106592284</v>
+        <v>0.900932610659228</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>0.6444720061474583</v>
+        <v>0.6444720061474581</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>0.3223927960794129</v>
+        <v>0.3223927960794128</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>0.2808030849829814</v>
+        <v>0.2808030849829813</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>0.303111652445883</v>
+        <v>0.3031116524458829</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>63.17820301734219</v>
+        <v>63.17820301734218</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>21.94099776621255</v>
+        <v>21.94099776621254</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>5.168278459688959</v>
+        <v>5.168278459688958</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>1.749352752611117</v>
+        <v>1.749352752611116</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>1.238916785995425</v>
+        <v>1.238916785995424</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11551,7 +11551,7 @@
         <v>1401</v>
       </c>
       <c r="B1401">
-        <v>2.898311383289442</v>
+        <v>2.898311383289441</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>30.69626058938931</v>
+        <v>30.6962605893893</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11639,7 +11639,7 @@
         <v>1412</v>
       </c>
       <c r="B1412">
-        <v>5.714504261545974</v>
+        <v>5.714504261545973</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>0.1648307719901458</v>
+        <v>0.1648307719901457</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -12031,7 +12031,7 @@
         <v>1461</v>
       </c>
       <c r="B1461">
-        <v>0.2964237713436311</v>
+        <v>0.296423771343631</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>0.1416259932910178</v>
+        <v>0.1416259932910177</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>0.0495067321348291</v>
+        <v>0.049506732134829</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>1.55164996064056</v>
+        <v>1.551649960640559</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>0.109469359715979</v>
+        <v>0.1094693597159789</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>0.073653148081176</v>
+        <v>0.0736531480811759</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>20.22949220753416</v>
+        <v>20.22949220753415</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>0.705210978910022</v>
+        <v>0.7052109789100219</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12535,7 +12535,7 @@
         <v>1524</v>
       </c>
       <c r="B1524">
-        <v>24.72968592749071</v>
+        <v>24.7296859274907</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>25.16290353683991</v>
+        <v>25.1629035368399</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>2.181960774199902</v>
+        <v>2.181960774199901</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>0.7246122816694031</v>
+        <v>0.7246122816694029</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>0.8328404855366512</v>
+        <v>0.8328404855366511</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12775,7 +12775,7 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>15.28761112521109</v>
+        <v>15.28761112521108</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12847,7 +12847,7 @@
         <v>1563</v>
       </c>
       <c r="B1563">
-        <v>0.2333926899876969</v>
+        <v>0.2333926899876968</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>1.663793593584324</v>
+        <v>1.663793593584323</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>0.5799465555653898</v>
+        <v>0.5799465555653897</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13127,7 +13127,7 @@
         <v>1598</v>
       </c>
       <c r="B1598">
-        <v>0.0460584582939397</v>
+        <v>0.0460584582939396</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>4.461801413891919</v>
+        <v>4.461801413891918</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>12.76963268234441</v>
+        <v>12.7696326823444</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>3.604891003950012</v>
+        <v>3.604891003950011</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>0.280716042884499</v>
+        <v>0.2807160428844989</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>0.2280119057178746</v>
+        <v>0.2280119057178745</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>8.515266949616986</v>
+        <v>8.515266949616985</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>22.87173277079325</v>
+        <v>22.87173277079324</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>4.501571153838264</v>
+        <v>4.501571153838263</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>0.6732457207232291</v>
+        <v>0.673245720723229</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>7.630661326521582</v>
+        <v>7.630661326521581</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13975,7 +13975,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>0.2486373662057441</v>
+        <v>0.248637366205744</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>0.1829141342886668</v>
+        <v>0.1829141342886667</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>0.3355780621087868</v>
+        <v>0.3355780621087867</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>6.019415370169237</v>
+        <v>6.019415370169236</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14519,7 +14519,7 @@
         <v>1772</v>
       </c>
       <c r="B1772">
-        <v>7.232436399188545</v>
+        <v>7.232436399188544</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>0.2432193619140118</v>
+        <v>0.2432193619140117</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>15.32491906843268</v>
+        <v>15.32491906843267</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>1.965272840344863</v>
+        <v>1.965272840344862</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>2.573494889720299</v>
+        <v>2.573494889720298</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>0.1682386020276999</v>
+        <v>0.1682386020276998</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>0.3339251414507369</v>
+        <v>0.3339251414507368</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>0.1149433405760956</v>
+        <v>0.1149433405760955</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>10.26287886025846</v>
+        <v>10.26287886025845</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>35.5820478749126</v>
+        <v>35.58204787491259</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>40.23132683223618</v>
+        <v>40.23132683223617</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15135,7 +15135,7 @@
         <v>1849</v>
       </c>
       <c r="B1849">
-        <v>0.242548522306516</v>
+        <v>0.2425485223065159</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>43.39063262900548</v>
+        <v>43.39063262900547</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15303,7 +15303,7 @@
         <v>1870</v>
       </c>
       <c r="B1870">
-        <v>7.094165483148123</v>
+        <v>7.094165483148122</v>
       </c>
     </row>
     <row r="1871" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>0.8960852156797696</v>
+        <v>0.8960852156797695</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>2.460841313169265</v>
+        <v>2.460841313169264</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>2.04896806756577</v>
+        <v>2.048968067565769</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>0.4038020691987614</v>
+        <v>0.4038020691987613</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>0.2685184262554138</v>
+        <v>0.2685184262554137</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>0.2502067616177756</v>
+        <v>0.2502067616177755</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>7.458247634477112</v>
+        <v>7.458247634477111</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>0.945007564163508</v>
+        <v>0.9450075641635078</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>0.3343647480087289</v>
+        <v>0.3343647480087288</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>0.3670509609506287</v>
+        <v>0.3670509609506286</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16607,7 +16607,7 @@
         <v>2033</v>
       </c>
       <c r="B2033">
-        <v>0.1911251055788417</v>
+        <v>0.1911251055788416</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>0.5127717427938229</v>
+        <v>0.5127717427938228</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>0.8097933790563231</v>
+        <v>0.809793379056323</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>0.3967038886423836</v>
+        <v>0.3967038886423835</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>0.3002600712397081</v>
+        <v>0.300260071239708</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>0.3500235336044045</v>
+        <v>0.3500235336044044</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>1.441434735131188</v>
+        <v>1.441434735131187</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17383,7 +17383,7 @@
         <v>2130</v>
       </c>
       <c r="B2130">
-        <v>31.41955991280551</v>
+        <v>31.4195599128055</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>6.900885133150966</v>
+        <v>6.900885133150965</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>0.2441064879480397</v>
+        <v>0.2441064879480396</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>0.7548953120942798</v>
+        <v>0.7548953120942797</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>0.267828537030405</v>
+        <v>0.2678285370304049</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>2.577055702840035</v>
+        <v>2.577055702840034</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>2.383590718088521</v>
+        <v>2.38359071808852</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17799,7 +17799,7 @@
         <v>2182</v>
       </c>
       <c r="B2182">
-        <v>1.548039325444252</v>
+        <v>1.548039325444251</v>
       </c>
     </row>
     <row r="2183" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>0.3381189880139807</v>
+        <v>0.3381189880139806</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17879,7 +17879,7 @@
         <v>2192</v>
       </c>
       <c r="B2192">
-        <v>4.719059171628849</v>
+        <v>4.719059171628848</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>48.31744985994136</v>
+        <v>48.31744985994135</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>0.3363078089950536</v>
+        <v>0.3363078089950535</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>62.55923698368943</v>
+        <v>62.55923698368942</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18543,7 +18543,7 @@
         <v>2275</v>
       </c>
       <c r="B2275">
-        <v>18.71601474967924</v>
+        <v>18.71601474967923</v>
       </c>
     </row>
     <row r="2276" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>50.51108658432153</v>
+        <v>50.51108658432152</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>56.12369004572495</v>
+        <v>56.12369004572494</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18927,7 +18927,7 @@
         <v>2323</v>
       </c>
       <c r="B2323">
-        <v>34.62136101018071</v>
+        <v>34.6213610101807</v>
       </c>
     </row>
     <row r="2324" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>5.846298307631981</v>
+        <v>5.84629830763198</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19503,7 +19503,7 @@
         <v>2395</v>
       </c>
       <c r="B2395">
-        <v>7.596430629205936</v>
+        <v>7.596430629205935</v>
       </c>
     </row>
     <row r="2396" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>35.4774215141105</v>
+        <v>35.47742151411049</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>4.009211808887204</v>
+        <v>4.009211808887203</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>0.1932366824123967</v>
+        <v>0.1932366824123966</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>0.270967327854468</v>
+        <v>0.2709673278544679</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>0.4029697474489632</v>
+        <v>0.4029697474489631</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>26.55660286119394</v>
+        <v>26.55660286119393</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>8.359763456503277</v>
+        <v>8.359763456503275</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>48.12138533507692</v>
+        <v>48.12138533507691</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>31.53678832827005</v>
+        <v>31.53678832827004</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20287,7 +20287,7 @@
         <v>2493</v>
       </c>
       <c r="B2493">
-        <v>5.175312164616831</v>
+        <v>5.17531216461683</v>
       </c>
     </row>
     <row r="2494" spans="1:2">
@@ -20431,7 +20431,7 @@
         <v>2511</v>
       </c>
       <c r="B2511">
-        <v>43.6960126512906</v>
+        <v>43.69601265129059</v>
       </c>
     </row>
     <row r="2512" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>0.693549682281687</v>
+        <v>0.6935496822816869</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>0.3006498557211277</v>
+        <v>0.3006498557211276</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>54.51092011997157</v>
+        <v>54.51092011997156</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>0.9027730967820214</v>
+        <v>0.9027730967820212</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>0.4822132255926044</v>
+        <v>0.4822132255926043</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>33.88780420041136</v>
+        <v>33.88780420041135</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>0.255455077778123</v>
+        <v>0.2554550777781229</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>0.2023242291792077</v>
+        <v>0.2023242291792076</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>7.053721679812857</v>
+        <v>7.053721679812856</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>2.028409134203677</v>
+        <v>2.028409134203676</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>0.2639374328500983</v>
+        <v>0.2639374328500982</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21727,7 +21727,7 @@
         <v>2673</v>
       </c>
       <c r="B2673">
-        <v>7.940232264659561</v>
+        <v>7.94023226465956</v>
       </c>
     </row>
     <row r="2674" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>0.2938476769137979</v>
+        <v>0.2938476769137978</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>0.1769137978431144</v>
+        <v>0.1769137978431143</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>0.2162761690457197</v>
+        <v>0.2162761690457196</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22023,7 +22023,7 @@
         <v>2710</v>
       </c>
       <c r="B2710">
-        <v>0.9907618147193172</v>
+        <v>0.990761814719317</v>
       </c>
     </row>
     <row r="2711" spans="1:2">
@@ -22039,7 +22039,7 @@
         <v>2712</v>
       </c>
       <c r="B2712">
-        <v>0.3514947502184845</v>
+        <v>0.3514947502184844</v>
       </c>
     </row>
     <row r="2713" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>0.2567686221734031</v>
+        <v>0.256768622173403</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>9.476862334568729</v>
+        <v>9.476862334568724</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>0.8224481865057199</v>
+        <v>0.8224481865057198</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22239,7 +22239,7 @@
         <v>2737</v>
       </c>
       <c r="B2737">
-        <v>0.5729275041894506</v>
+        <v>0.5729275041894505</v>
       </c>
     </row>
     <row r="2738" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>26.2340195689394</v>
+        <v>26.23401956893939</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>39.92330917060311</v>
+        <v>39.9233091706031</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22343,7 +22343,7 @@
         <v>2750</v>
       </c>
       <c r="B2750">
-        <v>43.986446050604</v>
+        <v>43.98644605060399</v>
       </c>
     </row>
     <row r="2751" spans="1:2">
@@ -22375,7 +22375,7 @@
         <v>2754</v>
       </c>
       <c r="B2754">
-        <v>31.73812813183039</v>
+        <v>31.73812813183038</v>
       </c>
     </row>
     <row r="2755" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>21.35678995774502</v>
+        <v>21.35678995774501</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>0.8698700112715122</v>
+        <v>0.8698700112715121</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>0.354826967928064</v>
+        <v>0.3548269679280639</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>3.727130934175659</v>
+        <v>3.727130934175658</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>47.19410856875242</v>
+        <v>47.19410856875241</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>52.79909218315065</v>
+        <v>52.79909218315064</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>3.696534317739415</v>
+        <v>3.696534317739414</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>5.34318325556205</v>
+        <v>5.343183255562049</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>4.559188920039085</v>
+        <v>4.559188920039084</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>8.219206586361295</v>
+        <v>8.219206586361294</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>0.4927461987220931</v>
+        <v>0.492746198722093</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>6.279105617527056</v>
+        <v>6.279105617527055</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>45.38292954982531</v>
+        <v>45.3829295498253</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>43.44895376569909</v>
+        <v>43.44895376569908</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>0.3003890224967191</v>
+        <v>0.300389022496719</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>62.16652179188323</v>
+        <v>62.16652179188322</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23327,7 +23327,7 @@
         <v>2873</v>
       </c>
       <c r="B2873">
-        <v>54.9185819347495</v>
+        <v>54.91858193474949</v>
       </c>
     </row>
     <row r="2874" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>0.4208294965449856</v>
+        <v>0.4208294965449855</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>47.46402699535952</v>
+        <v>47.46402699535951</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>50.34813908682582</v>
+        <v>50.34813908682581</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>2.825615112149495</v>
+        <v>2.825615112149494</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>6.464473049480357</v>
+        <v>6.464473049480356</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23639,7 +23639,7 @@
         <v>2912</v>
       </c>
       <c r="B2912">
-        <v>8.430569419443858</v>
+        <v>8.430569419443856</v>
       </c>
     </row>
     <row r="2913" spans="1:2">
@@ -23655,7 +23655,7 @@
         <v>2914</v>
       </c>
       <c r="B2914">
-        <v>38.86327122376502</v>
+        <v>38.86327122376501</v>
       </c>
     </row>
     <row r="2915" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>2920</v>
       </c>
       <c r="B2920">
-        <v>72.63853614533042</v>
+        <v>72.63853614533041</v>
       </c>
     </row>
     <row r="2921" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>59.63702565719716</v>
+        <v>59.63702565719715</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23759,7 +23759,7 @@
         <v>2927</v>
       </c>
       <c r="B2927">
-        <v>31.25397477596185</v>
+        <v>31.25397477596184</v>
       </c>
     </row>
     <row r="2928" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>2.566030370365595</v>
+        <v>2.566030370365594</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>1.326442451691636</v>
+        <v>1.326442451691635</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -23903,7 +23903,7 @@
         <v>2945</v>
       </c>
       <c r="B2945">
-        <v>35.32707607127723</v>
+        <v>35.32707607127722</v>
       </c>
     </row>
     <row r="2946" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>22.21534156550343</v>
+        <v>22.21534156550342</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -24007,7 +24007,7 @@
         <v>2958</v>
       </c>
       <c r="B2958">
-        <v>0.3467587222337172</v>
+        <v>0.3467587222337171</v>
       </c>
     </row>
     <row r="2959" spans="1:2">
@@ -24207,7 +24207,7 @@
         <v>2983</v>
       </c>
       <c r="B2983">
-        <v>0.3691434881666707</v>
+        <v>0.3691434881666706</v>
       </c>
     </row>
     <row r="2984" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>55.76438495232614</v>
+        <v>55.76438495232613</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24295,7 +24295,7 @@
         <v>2994</v>
       </c>
       <c r="B2994">
-        <v>55.15831404437448</v>
+        <v>55.15831404437447</v>
       </c>
     </row>
     <row r="2995" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>0.7633416194284999</v>
+        <v>0.7633416194284998</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24383,7 +24383,7 @@
         <v>3005</v>
       </c>
       <c r="B3005">
-        <v>0.419135545941523</v>
+        <v>0.4191355459415229</v>
       </c>
     </row>
     <row r="3006" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>35.48504136111569</v>
+        <v>35.48504136111568</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24479,7 +24479,7 @@
         <v>3017</v>
       </c>
       <c r="B3017">
-        <v>43.53804736145214</v>
+        <v>43.53804736145213</v>
       </c>
     </row>
     <row r="3018" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>43.15353815872845</v>
+        <v>43.15353815872844</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24647,7 +24647,7 @@
         <v>3038</v>
       </c>
       <c r="B3038">
-        <v>51.0283569675588</v>
+        <v>51.02835696755879</v>
       </c>
     </row>
     <row r="3039" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>48.02467189231867</v>
+        <v>48.02467189231866</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>64.50962474598069</v>
+        <v>64.50962474598067</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -24887,7 +24887,7 @@
         <v>3068</v>
       </c>
       <c r="B3068">
-        <v>37.37036735282413</v>
+        <v>37.37036735282412</v>
       </c>
     </row>
     <row r="3069" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>2.064881824965081</v>
+        <v>2.06488182496508</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>3.475851825627422</v>
+        <v>3.475851825627421</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>4.607018113548616</v>
+        <v>4.607018113548615</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>42.16999175298098</v>
+        <v>42.16999175298097</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>57.41290954479621</v>
+        <v>57.4129095447962</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>70.37397622959421</v>
+        <v>70.37397622959419</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>44.63120233565896</v>
+        <v>44.63120233565895</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25279,7 +25279,7 @@
         <v>3117</v>
       </c>
       <c r="B3117">
-        <v>35.52577823548962</v>
+        <v>35.52577823548961</v>
       </c>
     </row>
     <row r="3118" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>18.2904462944391</v>
+        <v>18.29044629443909</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>55.67763592488238</v>
+        <v>55.67763592488237</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>33.65070973013433</v>
+        <v>33.65070973013432</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25487,7 +25487,7 @@
         <v>3143</v>
       </c>
       <c r="B3143">
-        <v>16.18854080515993</v>
+        <v>16.18854080515992</v>
       </c>
     </row>
     <row r="3144" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>87.86093896443936</v>
+        <v>87.86093896443934</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>22.0408177619806</v>
+        <v>22.04081776198059</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>33.93088564309458</v>
+        <v>33.93088564309457</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>25.58935120519604</v>
+        <v>25.58935120519603</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>0.3685221775647087</v>
+        <v>0.3685221775647086</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>0.3958422597887193</v>
+        <v>0.3958422597887192</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>40.36877714936835</v>
+        <v>40.36877714936834</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>53.04878870809012</v>
+        <v>53.04878870809011</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>56.16970219879478</v>
+        <v>56.16970219879477</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>0.4597610533207587</v>
+        <v>0.4597610533207586</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26407,7 +26407,7 @@
         <v>3258</v>
       </c>
       <c r="B3258">
-        <v>75.84092338478294</v>
+        <v>75.84092338478293</v>
       </c>
     </row>
     <row r="3259" spans="1:2">
@@ -26511,7 +26511,7 @@
         <v>3271</v>
       </c>
       <c r="B3271">
-        <v>32.55022797996098</v>
+        <v>32.55022797996097</v>
       </c>
     </row>
     <row r="3272" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>74.42216648662337</v>
+        <v>74.42216648662335</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>28.40596903645863</v>
+        <v>28.40596903645862</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>8.624113533375811</v>
+        <v>8.624113533375809</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -26783,7 +26783,7 @@
         <v>3305</v>
       </c>
       <c r="B3305">
-        <v>10.05468119439344</v>
+        <v>10.05468119439343</v>
       </c>
     </row>
     <row r="3306" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>10.36302123416904</v>
+        <v>10.36302123416903</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>39.268295399195</v>
+        <v>39.26829539919499</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -27191,7 +27191,7 @@
         <v>3356</v>
       </c>
       <c r="B3356">
-        <v>8.538859168229225</v>
+        <v>8.538859168229223</v>
       </c>
     </row>
     <row r="3357" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>0.3530157889091369</v>
+        <v>0.3530157889091368</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>29.83375252260897</v>
+        <v>29.83375252260896</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27391,7 +27391,7 @@
         <v>3381</v>
       </c>
       <c r="B3381">
-        <v>7.883523018678591</v>
+        <v>7.88352301867859</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>4.253779590650097</v>
+        <v>4.253779590650096</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27431,7 +27431,7 @@
         <v>3386</v>
       </c>
       <c r="B3386">
-        <v>0.2641118101181018</v>
+        <v>0.2641118101181017</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>38.36387817388609</v>
+        <v>38.36387817388608</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27559,7 +27559,7 @@
         <v>3402</v>
       </c>
       <c r="B3402">
-        <v>49.52255797091681</v>
+        <v>49.5225579709168</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
@@ -27575,7 +27575,7 @@
         <v>3404</v>
       </c>
       <c r="B3404">
-        <v>26.18657136778013</v>
+        <v>26.18657136778012</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
@@ -27607,7 +27607,7 @@
         <v>3408</v>
       </c>
       <c r="B3408">
-        <v>1.182676453676313</v>
+        <v>1.182676453676312</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>0.3601843065147934</v>
+        <v>0.3601843065147933</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27679,7 +27679,7 @@
         <v>3417</v>
       </c>
       <c r="B3417">
-        <v>25.79567321641363</v>
+        <v>25.79567321641362</v>
       </c>
     </row>
     <row r="3418" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>56.48563277847171</v>
+        <v>56.4856327784717</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27823,7 +27823,7 @@
         <v>3435</v>
       </c>
       <c r="B3435">
-        <v>0.7402183144781197</v>
+        <v>0.7402183144781196</v>
       </c>
     </row>
     <row r="3436" spans="1:2">
@@ -27831,7 +27831,7 @@
         <v>3436</v>
       </c>
       <c r="B3436">
-        <v>0.6168061000978272</v>
+        <v>0.6168061000978271</v>
       </c>
     </row>
     <row r="3437" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>42.58791105411206</v>
+        <v>42.58791105411205</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>55.63191684285121</v>
+        <v>55.6319168428512</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>69.02086724409477</v>
+        <v>69.02086724409476</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>81.04615810244709</v>
+        <v>81.04615810244708</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>59.65754062990345</v>
+        <v>59.65754062990344</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -27999,7 +27999,7 @@
         <v>3457</v>
       </c>
       <c r="B3457">
-        <v>28.00399279983073</v>
+        <v>28.00399279983072</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>65.5535437856924</v>
+        <v>65.55354378569238</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28127,7 +28127,7 @@
         <v>3473</v>
       </c>
       <c r="B3473">
-        <v>74.34860565591937</v>
+        <v>74.34860565591936</v>
       </c>
     </row>
     <row r="3474" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>37.37036735282413</v>
+        <v>37.37036735282412</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28207,7 +28207,7 @@
         <v>3483</v>
       </c>
       <c r="B3483">
-        <v>6.830196398625849</v>
+        <v>6.830196398625848</v>
       </c>
     </row>
     <row r="3484" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>60.84975361517781</v>
+        <v>60.8497536151778</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>86.79328117059607</v>
+        <v>86.79328117059606</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>88.24837887754965</v>
+        <v>88.24837887754964</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28335,7 +28335,7 @@
         <v>3499</v>
       </c>
       <c r="B3499">
-        <v>74.43740618063376</v>
+        <v>74.43740618063374</v>
       </c>
     </row>
     <row r="3500" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>36.51694448824229</v>
+        <v>36.51694448824228</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>81.60387228901963</v>
+        <v>81.60387228901962</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>98.41589242182771</v>
+        <v>98.41589242182768</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -28527,7 +28527,7 @@
         <v>3523</v>
       </c>
       <c r="B3523">
-        <v>63.08354107185458</v>
+        <v>63.08354107185457</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>50.74056120759336</v>
+        <v>50.74056120759335</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>43.07440897828989</v>
+        <v>43.07440897828988</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28631,7 +28631,7 @@
         <v>3536</v>
       </c>
       <c r="B3536">
-        <v>49.92758214634679</v>
+        <v>49.92758214634678</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -28647,7 +28647,7 @@
         <v>3538</v>
       </c>
       <c r="B3538">
-        <v>75.84678480555617</v>
+        <v>75.84678480555615</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>89.69497752438205</v>
+        <v>89.69497752438204</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28727,7 +28727,7 @@
         <v>3548</v>
       </c>
       <c r="B3548">
-        <v>54.13666840360103</v>
+        <v>54.13666840360102</v>
       </c>
     </row>
     <row r="3549" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>71.73704963040812</v>
+        <v>71.73704963040811</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>65.92105486817373</v>
+        <v>65.92105486817371</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>98.20458820295288</v>
+        <v>98.20458820295286</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>65.17196529335533</v>
+        <v>65.17196529335531</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29159,7 +29159,7 @@
         <v>3602</v>
       </c>
       <c r="B3602">
-        <v>20.74260098202244</v>
+        <v>20.74260098202243</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>91.05072414922944</v>
+        <v>91.05072414922942</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>98.95367777777128</v>
+        <v>98.95367777777126</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>38.78443511436512</v>
+        <v>38.78443511436511</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>58.50840908731232</v>
+        <v>58.50840908731231</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>94.39085477685281</v>
+        <v>94.39085477685278</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29487,7 +29487,7 @@
         <v>3643</v>
       </c>
       <c r="B3643">
-        <v>98.07006859620732</v>
+        <v>98.07006859620731</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>64.67726138009498</v>
+        <v>64.67726138009496</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>56.78603059309959</v>
+        <v>56.78603059309958</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29679,7 +29679,7 @@
         <v>3667</v>
       </c>
       <c r="B3667">
-        <v>46.66951140954861</v>
+        <v>46.6695114095486</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>4.574135543010813</v>
+        <v>4.574135543010812</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>55.95810490888129</v>
+        <v>55.95810490888128</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>61.73101822843247</v>
+        <v>61.73101822843246</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>56.88772624351508</v>
+        <v>56.88772624351507</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30463,7 +30463,7 @@
         <v>3765</v>
       </c>
       <c r="B3765">
-        <v>74.84008578775445</v>
+        <v>74.84008578775443</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -30471,7 +30471,7 @@
         <v>3766</v>
       </c>
       <c r="B3766">
-        <v>66.58544691281899</v>
+        <v>66.58544691281898</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>44.18778585416434</v>
+        <v>44.18778585416433</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>80.27186441830382</v>
+        <v>80.27186441830381</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>79.93072972930202</v>
+        <v>79.930729729302</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30847,7 +30847,7 @@
         <v>3813</v>
       </c>
       <c r="B3813">
-        <v>42.25937841977269</v>
+        <v>42.25937841977268</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -30919,7 +30919,7 @@
         <v>3822</v>
       </c>
       <c r="B3822">
-        <v>4.536270764815767</v>
+        <v>4.536270764815766</v>
       </c>
     </row>
     <row r="3823" spans="1:2">
@@ -30935,7 +30935,7 @@
         <v>3824</v>
       </c>
       <c r="B3824">
-        <v>25.73588672452671</v>
+        <v>25.7358867245267</v>
       </c>
     </row>
     <row r="3825" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>49.7470503865314</v>
+        <v>49.74705038653139</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>50.93691880349646</v>
+        <v>50.93691880349645</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>8.420956689375766</v>
+        <v>8.420956689375764</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31391,7 +31391,7 @@
         <v>3881</v>
       </c>
       <c r="B3881">
-        <v>53.20382328754197</v>
+        <v>53.20382328754196</v>
       </c>
     </row>
     <row r="3882" spans="1:2">
@@ -31423,7 +31423,7 @@
         <v>3885</v>
       </c>
       <c r="B3885">
-        <v>44.85012640153898</v>
+        <v>44.85012640153897</v>
       </c>
     </row>
     <row r="3886" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>54.69702022952152</v>
+        <v>54.69702022952151</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31583,7 +31583,7 @@
         <v>3905</v>
       </c>
       <c r="B3905">
-        <v>78.32264894016721</v>
+        <v>78.3226489401672</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>87.46089699666662</v>
+        <v>87.46089699666661</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31647,7 +31647,7 @@
         <v>3913</v>
       </c>
       <c r="B3913">
-        <v>28.69868838987358</v>
+        <v>28.69868838987357</v>
       </c>
     </row>
     <row r="3914" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>96.31633150085784</v>
+        <v>96.3163315008578</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31815,7 +31815,7 @@
         <v>3934</v>
       </c>
       <c r="B3934">
-        <v>68.51942269694521</v>
+        <v>68.5194226969452</v>
       </c>
     </row>
     <row r="3935" spans="1:2">
@@ -31823,7 +31823,7 @@
         <v>3935</v>
       </c>
       <c r="B3935">
-        <v>56.83731802486533</v>
+        <v>56.83731802486532</v>
       </c>
     </row>
     <row r="3936" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>92.4574651348039</v>
+        <v>92.45746513480388</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32199,7 +32199,7 @@
         <v>3982</v>
       </c>
       <c r="B3982">
-        <v>83.42061965768131</v>
+        <v>83.4206196576813</v>
       </c>
     </row>
     <row r="3983" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>59.14027024666618</v>
+        <v>59.14027024666617</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>97.39453985209292</v>
+        <v>97.3945398520929</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32383,7 +32383,7 @@
         <v>4005</v>
       </c>
       <c r="B4005">
-        <v>65.01898221117411</v>
+        <v>65.01898221117409</v>
       </c>
     </row>
     <row r="4006" spans="1:2">
@@ -32439,7 +32439,7 @@
         <v>4012</v>
       </c>
       <c r="B4012">
-        <v>30.59163422858721</v>
+        <v>30.5916342285872</v>
       </c>
     </row>
     <row r="4013" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>37.1514432869441</v>
+        <v>37.15144328694409</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>85.70041926742792</v>
+        <v>85.7004192674279</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>31.87938837246516</v>
+        <v>31.87938837246515</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>41.00093137976087</v>
+        <v>41.00093137976086</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>71.17142252579173</v>
+        <v>71.17142252579171</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>88.42715221113308</v>
+        <v>88.42715221113306</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32703,7 +32703,7 @@
         <v>4045</v>
       </c>
       <c r="B4045">
-        <v>90.72482915423802</v>
+        <v>90.72482915423799</v>
       </c>
     </row>
     <row r="4046" spans="1:2">
@@ -32735,7 +32735,7 @@
         <v>4049</v>
       </c>
       <c r="B4049">
-        <v>114.7853752862572</v>
+        <v>114.7853752862571</v>
       </c>
     </row>
     <row r="4050" spans="1:2">
@@ -32823,7 +32823,7 @@
         <v>4060</v>
       </c>
       <c r="B4060">
-        <v>33.04200118283472</v>
+        <v>33.04200118283471</v>
       </c>
     </row>
     <row r="4061" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>101.8143441861447</v>
+        <v>101.8143441861446</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32951,7 +32951,7 @@
         <v>4076</v>
       </c>
       <c r="B4076">
-        <v>88.05231435268522</v>
+        <v>88.0523143526852</v>
       </c>
     </row>
     <row r="4077" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>64.74613307418039</v>
+        <v>64.74613307418038</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>79.69832439564357</v>
+        <v>79.69832439564355</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>87.40726499659159</v>
+        <v>87.40726499659158</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>112.3804343430022</v>
+        <v>112.3804343430021</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>62.39335877580711</v>
+        <v>62.3933587758071</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33223,7 +33223,7 @@
         <v>4110</v>
       </c>
       <c r="B4110">
-        <v>37.31175314509186</v>
+        <v>37.31175314509185</v>
       </c>
     </row>
     <row r="4111" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>59.86122500177309</v>
+        <v>59.86122500177308</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33343,7 +33343,7 @@
         <v>4125</v>
       </c>
       <c r="B4125">
-        <v>68.51414741824931</v>
+        <v>68.51414741824929</v>
       </c>
     </row>
     <row r="4126" spans="1:2">
@@ -33351,7 +33351,7 @@
         <v>4126</v>
       </c>
       <c r="B4126">
-        <v>60.34010307894573</v>
+        <v>60.34010307894572</v>
       </c>
     </row>
     <row r="4127" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>35.70425849803438</v>
+        <v>35.70425849803437</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>47.69115705032206</v>
+        <v>47.69115705032205</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>74.9420745092086</v>
+        <v>74.94207450920858</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>94.69887243848586</v>
+        <v>94.69887243848584</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>98.93374894714231</v>
+        <v>98.93374894714228</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33575,7 +33575,7 @@
         <v>4154</v>
       </c>
       <c r="B4154">
-        <v>33.84179204734153</v>
+        <v>33.84179204734152</v>
       </c>
     </row>
     <row r="4155" spans="1:2">
@@ -33607,7 +33607,7 @@
         <v>4158</v>
       </c>
       <c r="B4158">
-        <v>33.50036428730106</v>
+        <v>33.50036428730105</v>
       </c>
     </row>
     <row r="4159" spans="1:2">
@@ -33615,7 +33615,7 @@
         <v>4159</v>
       </c>
       <c r="B4159">
-        <v>56.39126390402276</v>
+        <v>56.39126390402275</v>
       </c>
     </row>
     <row r="4160" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>97.16535829985976</v>
+        <v>97.16535829985972</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>68.63665111240975</v>
+        <v>68.63665111240974</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>110.2392573345424</v>
+        <v>110.2392573345423</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>52.01424794161557</v>
+        <v>52.01424794161556</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>57.91494023402309</v>
+        <v>57.91494023402308</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -33999,7 +33999,7 @@
         <v>4207</v>
       </c>
       <c r="B4207">
-        <v>68.67181963704911</v>
+        <v>68.6718196370491</v>
       </c>
     </row>
     <row r="4208" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>88.83657245214297</v>
+        <v>88.83657245214296</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>61.83564458923457</v>
+        <v>61.83564458923456</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>20.49645061665078</v>
+        <v>20.49645061665077</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>100.8492612558329</v>
+        <v>100.8492612558328</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>49.54834822231901</v>
+        <v>49.548348222319</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34335,7 +34335,7 @@
         <v>4249</v>
       </c>
       <c r="B4249">
-        <v>38.40490811929868</v>
+        <v>38.40490811929867</v>
       </c>
     </row>
     <row r="4250" spans="1:2">
@@ -34343,7 +34343,7 @@
         <v>4250</v>
       </c>
       <c r="B4250">
-        <v>32.16806334554659</v>
+        <v>32.16806334554658</v>
       </c>
     </row>
     <row r="4251" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>63.30070671150264</v>
+        <v>63.30070671150263</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>81.63757545846569</v>
+        <v>81.63757545846568</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34783,7 +34783,7 @@
         <v>4305</v>
       </c>
       <c r="B4305">
-        <v>72.28948853828476</v>
+        <v>72.28948853828474</v>
       </c>
     </row>
     <row r="4306" spans="1:2">
@@ -34799,7 +34799,7 @@
         <v>4307</v>
       </c>
       <c r="B4307">
-        <v>79.39294437335845</v>
+        <v>79.39294437335843</v>
       </c>
     </row>
     <row r="4308" spans="1:2">
@@ -34943,7 +34943,7 @@
         <v>4325</v>
       </c>
       <c r="B4325">
-        <v>16.94522091987966</v>
+        <v>16.94522091987965</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>29.84899221661936</v>
+        <v>29.84899221661935</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>55.94784742252814</v>
+        <v>55.94784742252813</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>94.16108708254229</v>
+        <v>94.16108708254228</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>77.98151425116541</v>
+        <v>77.98151425116539</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35119,7 +35119,7 @@
         <v>4347</v>
       </c>
       <c r="B4347">
-        <v>27.58302555989757</v>
+        <v>27.58302555989756</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>84.64858730967235</v>
+        <v>84.64858730967234</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35271,7 +35271,7 @@
         <v>4366</v>
       </c>
       <c r="B4366">
-        <v>57.12511378483077</v>
+        <v>57.12511378483076</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>53.83568444689583</v>
+        <v>53.83568444689582</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>85.13537830488885</v>
+        <v>85.13537830488883</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -35463,7 +35463,7 @@
         <v>4390</v>
       </c>
       <c r="B4390">
-        <v>70.85812958546275</v>
+        <v>70.85812958546273</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>34.82797609243696</v>
+        <v>34.82797609243695</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>118.3441369087219</v>
+        <v>118.3441369087218</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35751,7 +35751,7 @@
         <v>4426</v>
       </c>
       <c r="B4426">
-        <v>52.48286853243506</v>
+        <v>52.48286853243505</v>
       </c>
     </row>
     <row r="4427" spans="1:2">
@@ -35879,7 +35879,7 @@
         <v>4442</v>
       </c>
       <c r="B4442">
-        <v>22.05031326363323</v>
+        <v>22.05031326363322</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35927,7 +35927,7 @@
         <v>4448</v>
       </c>
       <c r="B4448">
-        <v>51.08433353594312</v>
+        <v>51.08433353594311</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
@@ -35935,7 +35935,7 @@
         <v>4449</v>
       </c>
       <c r="B4449">
-        <v>65.17665442997391</v>
+        <v>65.17665442997389</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>110.1604212251425</v>
+        <v>110.1604212251424</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36015,7 +36015,7 @@
         <v>4459</v>
       </c>
       <c r="B4459">
-        <v>110.3696739467467</v>
+        <v>110.3696739467466</v>
       </c>
     </row>
     <row r="4460" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>84.16970923249971</v>
+        <v>84.1697092324997</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36055,7 +36055,7 @@
         <v>4464</v>
       </c>
       <c r="B4464">
-        <v>46.18272041433212</v>
+        <v>46.18272041433211</v>
       </c>
     </row>
     <row r="4465" spans="1:2">
@@ -36223,7 +36223,7 @@
         <v>4485</v>
       </c>
       <c r="B4485">
-        <v>88.09539579536843</v>
+        <v>88.09539579536842</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -36247,7 +36247,7 @@
         <v>4488</v>
       </c>
       <c r="B4488">
-        <v>56.18464882176651</v>
+        <v>56.1846488217665</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
@@ -36255,7 +36255,7 @@
         <v>4489</v>
       </c>
       <c r="B4489">
-        <v>48.63865571831419</v>
+        <v>48.63865571831418</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
@@ -36271,7 +36271,7 @@
         <v>4491</v>
       </c>
       <c r="B4491">
-        <v>38.76890234931607</v>
+        <v>38.76890234931606</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>51.2323344104671</v>
+        <v>51.23233441046709</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>80.47584186121212</v>
+        <v>80.4758418612121</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>34.68495742557022</v>
+        <v>34.68495742557021</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>55.52494591373982</v>
+        <v>55.52494591373981</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>86.88794311608369</v>
+        <v>86.88794311608368</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>86.28187220813203</v>
+        <v>86.28187220813201</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>81.03883132648056</v>
+        <v>81.03883132648055</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>30.96617901599641</v>
+        <v>30.9661790159964</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36887,7 +36887,7 @@
         <v>4568</v>
       </c>
       <c r="B4568">
-        <v>43.5254453067897</v>
+        <v>43.52544530678969</v>
       </c>
     </row>
     <row r="4569" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>63.0129109515372</v>
+        <v>63.01291095153719</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36991,7 +36991,7 @@
         <v>4581</v>
       </c>
       <c r="B4581">
-        <v>62.1257849175093</v>
+        <v>62.12578491750929</v>
       </c>
     </row>
     <row r="4582" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>76.0322987730288</v>
+        <v>76.03229877302878</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>86.36275981480256</v>
+        <v>86.36275981480254</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>85.73676007622193</v>
+        <v>85.73676007622191</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>98.55158431272793</v>
+        <v>98.5515843127279</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37183,7 +37183,7 @@
         <v>4605</v>
       </c>
       <c r="B4605">
-        <v>71.80328368514559</v>
+        <v>71.80328368514557</v>
       </c>
     </row>
     <row r="4606" spans="1:2">
@@ -37199,7 +37199,7 @@
         <v>4607</v>
       </c>
       <c r="B4607">
-        <v>48.60055648328822</v>
+        <v>48.60055648328821</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>64.00964555402443</v>
+        <v>64.00964555402442</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37359,7 +37359,7 @@
         <v>4627</v>
       </c>
       <c r="B4627">
-        <v>77.34174017376769</v>
+        <v>77.34174017376768</v>
       </c>
     </row>
     <row r="4628" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>39.91305168424996</v>
+        <v>39.91305168424995</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>98.01643659613229</v>
+        <v>98.01643659613228</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>81.61647434368207</v>
+        <v>81.61647434368206</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>55.0232082955516</v>
+        <v>55.02320829555159</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>88.11122163145615</v>
+        <v>88.11122163145613</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37759,7 +37759,7 @@
         <v>4677</v>
       </c>
       <c r="B4677">
-        <v>66.74634291304407</v>
+        <v>66.74634291304406</v>
       </c>
     </row>
     <row r="4678" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>46.99775097284932</v>
+        <v>46.99775097284931</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37847,7 +37847,7 @@
         <v>4688</v>
       </c>
       <c r="B4688">
-        <v>57.71858263811999</v>
+        <v>57.71858263811998</v>
       </c>
     </row>
     <row r="4689" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>26.01072874458332</v>
+        <v>26.01072874458331</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>51.35425196255022</v>
+        <v>51.35425196255021</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>106.9427942916796</v>
+        <v>106.9427942916795</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38151,7 +38151,7 @@
         <v>4726</v>
       </c>
       <c r="B4726">
-        <v>62.61492048103509</v>
+        <v>62.61492048103508</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>85.68049043679895</v>
+        <v>85.68049043679893</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>88.19474687747463</v>
+        <v>88.19474687747461</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>94.09221538845688</v>
+        <v>94.09221538845686</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>37.06205662015239</v>
+        <v>37.06205662015238</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>79.50225987077913</v>
+        <v>79.50225987077911</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>63.82501079966778</v>
+        <v>63.82501079966777</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>83.63251001863347</v>
+        <v>83.63251001863345</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>123.7521767851397</v>
+        <v>123.7521767851396</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38759,7 +38759,7 @@
         <v>4802</v>
       </c>
       <c r="B4802">
-        <v>54.97954071079106</v>
+        <v>54.97954071079105</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>93.05093398809312</v>
+        <v>93.05093398809311</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>49.40298498714298</v>
+        <v>49.40298498714297</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>147.840271594793</v>
+        <v>147.8402715947929</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39159,7 +39159,7 @@
         <v>4852</v>
       </c>
       <c r="B4852">
-        <v>50.46771207059965</v>
+        <v>50.46771207059964</v>
       </c>
     </row>
     <row r="4853" spans="1:2">
@@ -39295,7 +39295,7 @@
         <v>4869</v>
       </c>
       <c r="B4869">
-        <v>87.48668724806882</v>
+        <v>87.4866872480688</v>
       </c>
     </row>
     <row r="4870" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>86.18193498394851</v>
+        <v>86.18193498394849</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39519,7 +39519,7 @@
         <v>4897</v>
       </c>
       <c r="B4897">
-        <v>60.11062845567389</v>
+        <v>60.11062845567388</v>
       </c>
     </row>
     <row r="4898" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>43.97149942763227</v>
+        <v>43.97149942763226</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>118.6011602096279</v>
+        <v>118.6011602096278</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>58.97468510982252</v>
+        <v>58.97468510982251</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>71.04686733436066</v>
+        <v>71.04686733436064</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>113.3985631313117</v>
+        <v>113.3985631313116</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>76.61316557165559</v>
+        <v>76.61316557165557</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>26.59983083939649</v>
+        <v>26.59983083939648</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>30.62211361660799</v>
+        <v>30.62211361660798</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>32.25451930195168</v>
+        <v>32.25451930195167</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>47.46432006639818</v>
+        <v>47.46432006639817</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>72.19072359825589</v>
+        <v>72.19072359825587</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40423,7 +40423,7 @@
         <v>5010</v>
       </c>
       <c r="B5010">
-        <v>77.62982900477179</v>
+        <v>77.62982900477178</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40495,7 +40495,7 @@
         <v>5019</v>
       </c>
       <c r="B5019">
-        <v>26.14264001908479</v>
+        <v>26.14264001908478</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>55.43087011032953</v>
+        <v>55.43087011032952</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40727,7 +40727,7 @@
         <v>5048</v>
       </c>
       <c r="B5048">
-        <v>38.94210733316492</v>
+        <v>38.94210733316491</v>
       </c>
     </row>
     <row r="5049" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>36.97296302439934</v>
+        <v>36.97296302439933</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40831,7 +40831,7 @@
         <v>5061</v>
       </c>
       <c r="B5061">
-        <v>58.28420974273639</v>
+        <v>58.28420974273638</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>50.78364265027658</v>
+        <v>50.78364265027657</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>76.19583241260183</v>
+        <v>76.19583241260182</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>103.3482780024982</v>
+        <v>103.3482780024981</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41023,7 +41023,7 @@
         <v>5085</v>
       </c>
       <c r="B5085">
-        <v>63.46892948769425</v>
+        <v>63.46892948769424</v>
       </c>
     </row>
     <row r="5086" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>39.27093303854295</v>
+        <v>39.27093303854294</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>100.220037735827</v>
+        <v>100.2200377358269</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>45.85653234830204</v>
+        <v>45.85653234830203</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>36.83785727557646</v>
+        <v>36.83785727557645</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>91.40035789835242</v>
+        <v>91.4003578983524</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>109.3105152130246</v>
+        <v>109.3105152130245</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41423,7 +41423,7 @@
         <v>5135</v>
       </c>
       <c r="B5135">
-        <v>56.29953266892176</v>
+        <v>56.29953266892175</v>
       </c>
     </row>
     <row r="5136" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>34.87603974277742</v>
+        <v>34.87603974277741</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>85.20952527767017</v>
+        <v>85.20952527767015</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41575,7 +41575,7 @@
         <v>5154</v>
       </c>
       <c r="B5154">
-        <v>89.07894220111591</v>
+        <v>89.07894220111589</v>
       </c>
     </row>
     <row r="5155" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>42.5193324310653</v>
+        <v>42.51933243106529</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>70.39185356295255</v>
+        <v>70.39185356295253</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41919,7 +41919,7 @@
         <v>5197</v>
       </c>
       <c r="B5197">
-        <v>63.19344271135258</v>
+        <v>63.19344271135257</v>
       </c>
     </row>
     <row r="5198" spans="1:2">
@@ -41943,7 +41943,7 @@
         <v>5200</v>
       </c>
       <c r="B5200">
-        <v>61.18063081782646</v>
+        <v>61.18063081782645</v>
       </c>
     </row>
     <row r="5201" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>59.81023064104601</v>
+        <v>59.810230641046</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>61.09945014011727</v>
+        <v>61.09945014011726</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>6.502337827675403</v>
+        <v>6.502337827675402</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>37.36274750581893</v>
+        <v>37.36274750581892</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42343,7 +42343,7 @@
         <v>5250</v>
       </c>
       <c r="B5250">
-        <v>57.57615011333058</v>
+        <v>57.57615011333057</v>
       </c>
     </row>
     <row r="5251" spans="1:2">
@@ -42431,7 +42431,7 @@
         <v>5261</v>
       </c>
       <c r="B5261">
-        <v>4.300934720770707</v>
+        <v>4.300934720770706</v>
       </c>
     </row>
     <row r="5262" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>68.07835078375989</v>
+        <v>68.07835078375987</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>79.51749956478952</v>
+        <v>79.5174995647895</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>65.99725333822568</v>
+        <v>65.99725333822566</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42575,7 +42575,7 @@
         <v>5279</v>
       </c>
       <c r="B5279">
-        <v>26.95878424754891</v>
+        <v>26.9587842475489</v>
       </c>
     </row>
     <row r="5280" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>6.389681320413981</v>
+        <v>6.38968132041398</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>56.51318145610588</v>
+        <v>56.51318145610587</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42775,7 +42775,7 @@
         <v>5304</v>
       </c>
       <c r="B5304">
-        <v>35.44166684739381</v>
+        <v>35.4416668473938</v>
       </c>
     </row>
     <row r="5305" spans="1:2">
@@ -42871,7 +42871,7 @@
         <v>5316</v>
       </c>
       <c r="B5316">
-        <v>86.0137122077569</v>
+        <v>86.01371220775688</v>
       </c>
     </row>
     <row r="5317" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>95.11474024234631</v>
+        <v>95.1147402423463</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -42943,7 +42943,7 @@
         <v>5325</v>
       </c>
       <c r="B5325">
-        <v>70.94487861290651</v>
+        <v>70.94487861290649</v>
       </c>
     </row>
     <row r="5326" spans="1:2">
@@ -42983,7 +42983,7 @@
         <v>5330</v>
       </c>
       <c r="B5330">
-        <v>28.65053681822152</v>
+        <v>28.65053681822151</v>
       </c>
     </row>
     <row r="5331" spans="1:2">
@@ -42991,7 +42991,7 @@
         <v>5331</v>
       </c>
       <c r="B5331">
-        <v>24.26472872465449</v>
+        <v>24.26472872465448</v>
       </c>
     </row>
     <row r="5332" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>23.31673183589664</v>
+        <v>23.31673183589663</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -43023,7 +43023,7 @@
         <v>5335</v>
       </c>
       <c r="B5335">
-        <v>32.4280173568392</v>
+        <v>32.42801735683919</v>
       </c>
     </row>
     <row r="5336" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>55.74914525831575</v>
+        <v>55.74914525831574</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>69.9334904584862</v>
+        <v>69.93349045848619</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>88.57222237527044</v>
+        <v>88.57222237527043</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43119,7 +43119,7 @@
         <v>5347</v>
       </c>
       <c r="B5347">
-        <v>81.73106511979866</v>
+        <v>81.73106511979864</v>
       </c>
     </row>
     <row r="5348" spans="1:2">
@@ -43159,7 +43159,7 @@
         <v>5352</v>
       </c>
       <c r="B5352">
-        <v>38.736078392986</v>
+        <v>38.73607839298599</v>
       </c>
     </row>
     <row r="5353" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>26.18677651750719</v>
+        <v>26.18677651750718</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43319,7 +43319,7 @@
         <v>5372</v>
       </c>
       <c r="B5372">
-        <v>79.72880378366435</v>
+        <v>79.72880378366433</v>
       </c>
     </row>
     <row r="5373" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>68.54990208496599</v>
+        <v>68.54990208496598</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>50.39415123989565</v>
+        <v>50.39415123989564</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43391,7 +43391,7 @@
         <v>5381</v>
       </c>
       <c r="B5381">
-        <v>42.89123957912655</v>
+        <v>42.89123957912654</v>
       </c>
     </row>
     <row r="5382" spans="1:2">
@@ -43495,7 +43495,7 @@
         <v>5394</v>
       </c>
       <c r="B5394">
-        <v>100.7188446436286</v>
+        <v>100.7188446436285</v>
       </c>
     </row>
     <row r="5395" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>63.53721503970234</v>
+        <v>63.53721503970233</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>141.8938602203543</v>
+        <v>141.8938602203542</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43719,7 +43719,7 @@
         <v>5422</v>
       </c>
       <c r="B5422">
-        <v>71.71653465770183</v>
+        <v>71.71653465770181</v>
       </c>
     </row>
     <row r="5423" spans="1:2">
@@ -43735,7 +43735,7 @@
         <v>5424</v>
       </c>
       <c r="B5424">
-        <v>44.04535332937493</v>
+        <v>44.04535332937492</v>
       </c>
     </row>
     <row r="5425" spans="1:2">
@@ -43743,7 +43743,7 @@
         <v>5425</v>
       </c>
       <c r="B5425">
-        <v>35.26611729523567</v>
+        <v>35.26611729523566</v>
       </c>
     </row>
     <row r="5426" spans="1:2">
@@ -43783,7 +43783,7 @@
         <v>5430</v>
       </c>
       <c r="B5430">
-        <v>12.7353726779249</v>
+        <v>12.73537267792489</v>
       </c>
     </row>
     <row r="5431" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>45.9432813757458</v>
+        <v>45.94328137574579</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>23.36766758241598</v>
+        <v>23.36766758241597</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44183,7 +44183,7 @@
         <v>5480</v>
       </c>
       <c r="B5480">
-        <v>30.84133075352668</v>
+        <v>30.84133075352667</v>
       </c>
     </row>
     <row r="5481" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>57.42023632076274</v>
+        <v>57.42023632076273</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>52.71468772401618</v>
+        <v>52.71468772401617</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>89.52206561157186</v>
+        <v>89.52206561157185</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44679,7 +44679,7 @@
         <v>5542</v>
       </c>
       <c r="B5542">
-        <v>47.16597374904093</v>
+        <v>47.16597374904092</v>
       </c>
     </row>
     <row r="5543" spans="1:2">
@@ -44751,7 +44751,7 @@
         <v>5551</v>
       </c>
       <c r="B5551">
-        <v>43.76488434537602</v>
+        <v>43.76488434537601</v>
       </c>
     </row>
     <row r="5552" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>75.2301633402127</v>
+        <v>75.23016334021268</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>87.47672283275433</v>
+        <v>87.47672283275432</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>38.38673771490167</v>
+        <v>38.38673771490166</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -44967,7 +44967,7 @@
         <v>5578</v>
       </c>
       <c r="B5578">
-        <v>52.62852483864975</v>
+        <v>52.62852483864974</v>
       </c>
     </row>
     <row r="5579" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>58.32992882476756</v>
+        <v>58.32992882476755</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>23.21316053083372</v>
+        <v>23.21316053083371</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45367,7 +45367,7 @@
         <v>5628</v>
       </c>
       <c r="B5628">
-        <v>61.22634989985763</v>
+        <v>61.22634989985762</v>
       </c>
     </row>
     <row r="5629" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>76.70724137506588</v>
+        <v>76.70724137506586</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>29.13184738501505</v>
+        <v>29.13184738501504</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>93.47354242584278</v>
+        <v>93.47354242584277</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>87.60860480015194</v>
+        <v>87.60860480015192</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45831,7 +45831,7 @@
         <v>5686</v>
       </c>
       <c r="B5686">
-        <v>52.10597917671657</v>
+        <v>52.10597917671656</v>
       </c>
     </row>
     <row r="5687" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>69.68379393354674</v>
+        <v>69.68379393354672</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>85.01756374734698</v>
+        <v>85.01756374734697</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>36.95772333038895</v>
+        <v>36.95772333038894</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>69.66064132149249</v>
+        <v>69.66064132149248</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46223,7 +46223,7 @@
         <v>5735</v>
       </c>
       <c r="B5735">
-        <v>53.20909856623787</v>
+        <v>53.20909856623786</v>
       </c>
     </row>
     <row r="5736" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>43.98410148229471</v>
+        <v>43.9841014822947</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>66.21647047514436</v>
+        <v>66.21647047514435</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46375,7 +46375,7 @@
         <v>5754</v>
       </c>
       <c r="B5754">
-        <v>84.05248081703517</v>
+        <v>84.05248081703516</v>
       </c>
     </row>
     <row r="5755" spans="1:2">
@@ -46383,7 +46383,7 @@
         <v>5755</v>
       </c>
       <c r="B5755">
-        <v>81.19181440866178</v>
+        <v>81.19181440866177</v>
       </c>
     </row>
     <row r="5756" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>51.29094861819937</v>
+        <v>51.29094861819936</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>40.40189417673708</v>
+        <v>40.40189417673707</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>78.10606944259648</v>
+        <v>78.10606944259646</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46615,7 +46615,7 @@
         <v>5784</v>
       </c>
       <c r="B5784">
-        <v>18.28150762775993</v>
+        <v>18.28150762775992</v>
       </c>
     </row>
     <row r="5785" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>8.296782490294953</v>
+        <v>8.296782490294952</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46679,7 +46679,7 @@
         <v>5792</v>
       </c>
       <c r="B5792">
-        <v>30.5189526109992</v>
+        <v>30.51895261099919</v>
       </c>
     </row>
     <row r="5793" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>77.30598550705101</v>
+        <v>77.30598550705099</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>73.63468460574033</v>
+        <v>73.63468460574032</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>88.39139754441639</v>
+        <v>88.39139754441638</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -47055,7 +47055,7 @@
         <v>5839</v>
       </c>
       <c r="B5839">
-        <v>31.21470325678123</v>
+        <v>31.21470325678122</v>
       </c>
     </row>
     <row r="5840" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>61.4760464247971</v>
+        <v>61.47604642479709</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>67.21261893555427</v>
+        <v>67.21261893555426</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47207,7 +47207,7 @@
         <v>5858</v>
       </c>
       <c r="B5858">
-        <v>34.59586382981717</v>
+        <v>34.59586382981716</v>
       </c>
     </row>
     <row r="5859" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>25.72299159882561</v>
+        <v>25.7229915988256</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47343,7 +47343,7 @@
         <v>5875</v>
       </c>
       <c r="B5875">
-        <v>80.77858424414929</v>
+        <v>80.77858424414927</v>
       </c>
     </row>
     <row r="5876" spans="1:2">
@@ -47375,7 +47375,7 @@
         <v>5879</v>
       </c>
       <c r="B5879">
-        <v>50.57995827840694</v>
+        <v>50.57995827840693</v>
       </c>
     </row>
     <row r="5880" spans="1:2">
@@ -47503,7 +47503,7 @@
         <v>5895</v>
       </c>
       <c r="B5895">
-        <v>67.2146704328249</v>
+        <v>67.21467043282489</v>
       </c>
     </row>
     <row r="5896" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>37.73963686153742</v>
+        <v>37.73963686153741</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47543,7 +47543,7 @@
         <v>5900</v>
       </c>
       <c r="B5900">
-        <v>33.26092524871474</v>
+        <v>33.26092524871473</v>
       </c>
     </row>
     <row r="5901" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>54.63811295075059</v>
+        <v>54.63811295075058</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47799,7 +47799,7 @@
         <v>5932</v>
       </c>
       <c r="B5932">
-        <v>0.9942698750520936</v>
+        <v>0.9942698750520934</v>
       </c>
     </row>
     <row r="5933" spans="1:2">
@@ -48103,7 +48103,7 @@
         <v>5970</v>
       </c>
       <c r="B5970">
-        <v>58.25373035471561</v>
+        <v>58.2537303547156</v>
       </c>
     </row>
     <row r="5971" spans="1:2">
@@ -48151,7 +48151,7 @@
         <v>5976</v>
       </c>
       <c r="B5976">
-        <v>21.20486193130298</v>
+        <v>21.20486193130297</v>
       </c>
     </row>
     <row r="5977" spans="1:2">
@@ -48231,7 +48231,7 @@
         <v>5986</v>
       </c>
       <c r="B5986">
-        <v>61.49128611880749</v>
+        <v>61.49128611880748</v>
       </c>
     </row>
     <row r="5987" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>91.17527934066052</v>
+        <v>91.1752793406605</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48295,7 +48295,7 @@
         <v>5994</v>
       </c>
       <c r="B5994">
-        <v>76.23832771320772</v>
+        <v>76.23832771320771</v>
       </c>
     </row>
     <row r="5995" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>71.28132416528973</v>
+        <v>71.28132416528972</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>86.16405765059017</v>
+        <v>86.16405765059015</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>49.57091469229593</v>
+        <v>49.57091469229592</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>37.82638588898118</v>
+        <v>37.82638588898117</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>30.44773634860449</v>
+        <v>30.44773634860448</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48551,7 +48551,7 @@
         <v>6026</v>
       </c>
       <c r="B6026">
-        <v>25.59427479864555</v>
+        <v>25.59427479864554</v>
       </c>
     </row>
     <row r="6027" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>41.24271498665648</v>
+        <v>41.24271498665647</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48607,7 +48607,7 @@
         <v>6033</v>
       </c>
       <c r="B6033">
-        <v>43.54859791884395</v>
+        <v>43.54859791884394</v>
       </c>
     </row>
     <row r="6034" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>67.3140215149311</v>
+        <v>67.31402151493108</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48703,7 +48703,7 @@
         <v>6045</v>
       </c>
       <c r="B6045">
-        <v>41.3039668337367</v>
+        <v>41.30396683373669</v>
       </c>
     </row>
     <row r="6046" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>49.16090830920871</v>
+        <v>49.1609083092087</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>64.04276258139316</v>
+        <v>64.04276258139315</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -48863,7 +48863,7 @@
         <v>6065</v>
       </c>
       <c r="B6065">
-        <v>54.93909690745579</v>
+        <v>54.93909690745578</v>
       </c>
     </row>
     <row r="6066" spans="1:2">
@@ -48895,7 +48895,7 @@
         <v>6069</v>
       </c>
       <c r="B6069">
-        <v>56.66147540166852</v>
+        <v>56.66147540166851</v>
       </c>
     </row>
     <row r="6070" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>77.40592273123453</v>
+        <v>77.40592273123451</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>6.897925115660486</v>
+        <v>6.897925115660485</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>58.86243890201522</v>
+        <v>58.86243890201521</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>75.82363219350192</v>
+        <v>75.82363219350191</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49223,7 +49223,7 @@
         <v>6110</v>
       </c>
       <c r="B6110">
-        <v>80.80701213489944</v>
+        <v>80.80701213489942</v>
       </c>
     </row>
     <row r="6111" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>75.21228600685436</v>
+        <v>75.21228600685434</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>43.65791341626463</v>
+        <v>43.65791341626462</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49335,7 +49335,7 @@
         <v>6124</v>
       </c>
       <c r="B6124">
-        <v>6.431737014461884</v>
+        <v>6.431737014461883</v>
       </c>
     </row>
     <row r="6125" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>74.60035367812947</v>
+        <v>74.60035367812945</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>56.41383037399968</v>
+        <v>56.41383037399967</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>4.736526205533065</v>
+        <v>4.736526205533064</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>76.30514791002251</v>
+        <v>76.3051479100225</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>58.02396266040511</v>
+        <v>58.0239626604051</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>65.57200726112806</v>
+        <v>65.57200726112805</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49839,7 +49839,7 @@
         <v>6187</v>
       </c>
       <c r="B6187">
-        <v>45.36007000880972</v>
+        <v>45.36007000880971</v>
       </c>
     </row>
     <row r="6188" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>16.79508062677345</v>
+        <v>16.79508062677344</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>8.147755867135659</v>
+        <v>8.147755867135658</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>6.794500346116897</v>
+        <v>6.794500346116896</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>67.34772468437716</v>
+        <v>67.34772468437714</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -49975,7 +49975,7 @@
         <v>6204</v>
       </c>
       <c r="B6204">
-        <v>80.95413379630743</v>
+        <v>80.95413379630742</v>
       </c>
     </row>
     <row r="6205" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>73.12532714054691</v>
+        <v>73.1253271405469</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>53.71845603143129</v>
+        <v>53.71845603143128</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>51.16346271638168</v>
+        <v>51.16346271638167</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50063,7 +50063,7 @@
         <v>6215</v>
       </c>
       <c r="B6215">
-        <v>28.79839115722617</v>
+        <v>28.79839115722616</v>
       </c>
     </row>
     <row r="6216" spans="1:2">
@@ -50079,7 +50079,7 @@
         <v>6217</v>
       </c>
       <c r="B6217">
-        <v>18.15912116201495</v>
+        <v>18.15912116201494</v>
       </c>
     </row>
     <row r="6218" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>7.350250956730406</v>
+        <v>7.350250956730405</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>55.14307435036409</v>
+        <v>55.14307435036408</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>72.95446672500735</v>
+        <v>72.95446672500734</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>80.08781580602449</v>
+        <v>80.08781580602448</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50215,7 +50215,7 @@
         <v>6234</v>
       </c>
       <c r="B6234">
-        <v>60.89811033655693</v>
+        <v>60.89811033655692</v>
       </c>
     </row>
     <row r="6235" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>59.76656305628547</v>
+        <v>59.76656305628546</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50287,7 +50287,7 @@
         <v>6243</v>
       </c>
       <c r="B6243">
-        <v>25.61276758118508</v>
+        <v>25.61276758118507</v>
       </c>
     </row>
     <row r="6244" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>7.575769120980311</v>
+        <v>7.57576912098031</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>73.63527074781766</v>
+        <v>73.63527074781764</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>59.76187391966689</v>
+        <v>59.76187391966688</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>52.83982905752458</v>
+        <v>52.83982905752457</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50647,7 +50647,7 @@
         <v>6288</v>
       </c>
       <c r="B6288">
-        <v>36.02282671705926</v>
+        <v>36.02282671705925</v>
       </c>
     </row>
     <row r="6289" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>50.22065318500813</v>
+        <v>50.22065318500812</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>57.35136462667733</v>
+        <v>57.35136462667732</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>54.56953432770384</v>
+        <v>54.56953432770383</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -50975,7 +50975,7 @@
         <v>6329</v>
       </c>
       <c r="B6329">
-        <v>43.22504749216182</v>
+        <v>43.22504749216181</v>
       </c>
     </row>
     <row r="6330" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>35.05979528401808</v>
+        <v>35.05979528401807</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>0.8875890862689771</v>
+        <v>0.887589086268977</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51063,7 +51063,7 @@
         <v>6340</v>
       </c>
       <c r="B6340">
-        <v>0.6745059261894729</v>
+        <v>0.6745059261894728</v>
       </c>
     </row>
     <row r="6341" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>2.704225087935966</v>
+        <v>2.704225087935965</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51303,7 +51303,7 @@
         <v>6370</v>
       </c>
       <c r="B6370">
-        <v>35.88244568954048</v>
+        <v>35.88244568954047</v>
       </c>
     </row>
     <row r="6371" spans="1:2">
@@ -51415,7 +51415,7 @@
         <v>6384</v>
       </c>
       <c r="B6384">
-        <v>5.228709707860928</v>
+        <v>5.228709707860927</v>
       </c>
     </row>
     <row r="6385" spans="1:2">
@@ -51615,7 +51615,7 @@
         <v>6409</v>
       </c>
       <c r="B6409">
-        <v>0.966281590859935</v>
+        <v>0.9662815908599348</v>
       </c>
     </row>
     <row r="6410" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>0.8749753087649929</v>
+        <v>0.8749753087649927</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>55.12519701700575</v>
+        <v>55.12519701700574</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51991,7 +51991,7 @@
         <v>6456</v>
       </c>
       <c r="B6456">
-        <v>4.920281746773728</v>
+        <v>4.920281746773727</v>
       </c>
     </row>
     <row r="6457" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>70.15270759540489</v>
+        <v>70.15270759540488</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52175,7 +52175,7 @@
         <v>6479</v>
       </c>
       <c r="B6479">
-        <v>16.74997699392347</v>
+        <v>16.74997699392346</v>
       </c>
     </row>
     <row r="6480" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>5.027252675885119</v>
+        <v>5.027252675885118</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>6.149773368165804</v>
+        <v>6.149773368165803</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52447,7 +52447,7 @@
         <v>6513</v>
       </c>
       <c r="B6513">
-        <v>30.38648450152427</v>
+        <v>30.38648450152426</v>
       </c>
     </row>
     <row r="6514" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>59.35186753657967</v>
+        <v>59.35186753657966</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>56.5744333031861</v>
+        <v>56.57443330318609</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>8.813320195935574</v>
+        <v>8.813320195935573</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>5.928534041080354</v>
+        <v>5.928534041080353</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>7.455492766713696</v>
+        <v>7.455492766713695</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>53.99658044712091</v>
+        <v>53.9965804471209</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>65.12360857197621</v>
+        <v>65.12360857197619</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52727,7 +52727,7 @@
         <v>6548</v>
       </c>
       <c r="B6548">
-        <v>30.00812979061247</v>
+        <v>30.00812979061246</v>
       </c>
     </row>
     <row r="6549" spans="1:2">
@@ -52759,7 +52759,7 @@
         <v>6552</v>
       </c>
       <c r="B6552">
-        <v>8.508321166000712</v>
+        <v>8.508321166000711</v>
       </c>
     </row>
     <row r="6553" spans="1:2">
@@ -52855,7 +52855,7 @@
         <v>6564</v>
       </c>
       <c r="B6564">
-        <v>32.17070098489454</v>
+        <v>32.17070098489453</v>
       </c>
     </row>
     <row r="6565" spans="1:2">
@@ -52919,7 +52919,7 @@
         <v>6572</v>
       </c>
       <c r="B6572">
-        <v>14.94674020014408</v>
+        <v>14.94674020014407</v>
       </c>
     </row>
     <row r="6573" spans="1:2">
@@ -52991,7 +52991,7 @@
         <v>6581</v>
       </c>
       <c r="B6581">
-        <v>1.111020584723614</v>
+        <v>1.111020584723613</v>
       </c>
     </row>
     <row r="6582" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>80.05792256008104</v>
+        <v>80.05792256008102</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>79.79503783840181</v>
+        <v>79.7950378384018</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53135,7 +53135,7 @@
         <v>6599</v>
       </c>
       <c r="B6599">
-        <v>25.58961496913083</v>
+        <v>25.58961496913082</v>
       </c>
     </row>
     <row r="6600" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>47.28320216450547</v>
+        <v>47.28320216450546</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53255,7 +53255,7 @@
         <v>6614</v>
       </c>
       <c r="B6614">
-        <v>97.9906463447301</v>
+        <v>97.99064634473008</v>
       </c>
     </row>
     <row r="6615" spans="1:2">
@@ -53295,7 +53295,7 @@
         <v>6619</v>
       </c>
       <c r="B6619">
-        <v>54.12377327789993</v>
+        <v>54.12377327789992</v>
       </c>
     </row>
     <row r="6620" spans="1:2">
@@ -53303,7 +53303,7 @@
         <v>6620</v>
       </c>
       <c r="B6620">
-        <v>48.25883565220909</v>
+        <v>48.25883565220908</v>
       </c>
     </row>
     <row r="6621" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>5.933281791906668</v>
+        <v>5.933281791906667</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53383,7 +53383,7 @@
         <v>6630</v>
       </c>
       <c r="B6630">
-        <v>4.219373050711255</v>
+        <v>4.219373050711254</v>
       </c>
     </row>
     <row r="6631" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>80.28710411231421</v>
+        <v>80.2871041123142</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>95.83481578433724</v>
+        <v>95.83481578433722</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>99.65441063121057</v>
+        <v>99.65441063121054</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -53551,7 +53551,7 @@
         <v>6651</v>
       </c>
       <c r="B6651">
-        <v>3.879146881929299</v>
+        <v>3.879146881929298</v>
       </c>
     </row>
     <row r="6652" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>39.83890471146864</v>
+        <v>39.83890471146863</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -53695,7 +53695,7 @@
         <v>6669</v>
       </c>
       <c r="B6669">
-        <v>47.80574782643865</v>
+        <v>47.80574782643864</v>
       </c>
     </row>
     <row r="6670" spans="1:2">
@@ -53799,7 +53799,7 @@
         <v>6682</v>
       </c>
       <c r="B6682">
-        <v>8.859742648459532</v>
+        <v>8.85974264845953</v>
       </c>
     </row>
     <row r="6683" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>47.20700369445352</v>
+        <v>47.20700369445351</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54031,7 +54031,7 @@
         <v>6711</v>
       </c>
       <c r="B6711">
-        <v>44.50107879449332</v>
+        <v>44.50107879449331</v>
       </c>
     </row>
     <row r="6712" spans="1:2">
@@ -54119,7 +54119,7 @@
         <v>6722</v>
       </c>
       <c r="B6722">
-        <v>0.3393616092179048</v>
+        <v>0.3393616092179047</v>
       </c>
     </row>
     <row r="6723" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>15.58853646770856</v>
+        <v>15.58853646770855</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54207,7 +54207,7 @@
         <v>6733</v>
       </c>
       <c r="B6733">
-        <v>42.83262537139428</v>
+        <v>42.83262537139427</v>
       </c>
     </row>
     <row r="6734" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>26.32818329366129</v>
+        <v>26.32818329366128</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54255,7 +54255,7 @@
         <v>6739</v>
       </c>
       <c r="B6739">
-        <v>7.458452784204175</v>
+        <v>7.458452784204174</v>
       </c>
     </row>
     <row r="6740" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>0.2942872834717899</v>
+        <v>0.2942872834717898</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>0.3774227450088537</v>
+        <v>0.3774227450088536</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54655,7 +54655,7 @@
         <v>6789</v>
       </c>
       <c r="B6789">
-        <v>19.99192882359527</v>
+        <v>19.99192882359526</v>
       </c>
     </row>
     <row r="6790" spans="1:2">
@@ -54679,7 +54679,7 @@
         <v>6792</v>
       </c>
       <c r="B6792">
-        <v>6.357326277745768</v>
+        <v>6.357326277745767</v>
       </c>
     </row>
     <row r="6793" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>2.381483537320546</v>
+        <v>2.381483537320545</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>55.21135990237218</v>
+        <v>55.21135990237217</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>65.6581701464945</v>
+        <v>65.65817014649448</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>39.46201535575015</v>
+        <v>39.46201535575014</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>7.822241864494503</v>
+        <v>7.822241864494502</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>1.817444877733694</v>
+        <v>1.817444877733693</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54935,7 +54935,7 @@
         <v>6824</v>
       </c>
       <c r="B6824">
-        <v>9.700123851820941</v>
+        <v>9.700123851820935</v>
       </c>
     </row>
     <row r="6825" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>3.927298453581358</v>
+        <v>3.927298453581357</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>76.06541580039753</v>
+        <v>76.06541580039752</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55223,7 +55223,7 @@
         <v>6860</v>
       </c>
       <c r="B6860">
-        <v>39.29877478721578</v>
+        <v>39.29877478721577</v>
       </c>
     </row>
     <row r="6861" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>37.30647786639595</v>
+        <v>37.30647786639594</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55255,7 +55255,7 @@
         <v>6864</v>
       </c>
       <c r="B6864">
-        <v>12.97062080065836</v>
+        <v>12.97062080065835</v>
       </c>
     </row>
     <row r="6865" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>6.761852232410024</v>
+        <v>6.761852232410023</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>51.83107854245223</v>
+        <v>51.83107854245222</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>69.80043620693395</v>
+        <v>69.80043620693394</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>4.639461077528427</v>
+        <v>4.639461077528426</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>48.89362752194956</v>
+        <v>48.89362752194955</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>57.82291592788343</v>
+        <v>57.82291592788342</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>1.514424077309796</v>
+        <v>1.514424077309795</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55863,7 +55863,7 @@
         <v>6940</v>
       </c>
       <c r="B6940">
-        <v>0.5495931880912343</v>
+        <v>0.5495931880912341</v>
       </c>
     </row>
     <row r="6941" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>35.61516490228133</v>
+        <v>35.61516490228132</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -56007,7 +56007,7 @@
         <v>6958</v>
       </c>
       <c r="B6958">
-        <v>5.871619645372321</v>
+        <v>5.87161964537232</v>
       </c>
     </row>
     <row r="6959" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>0.718736207344243</v>
+        <v>0.7187362073442429</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>16.62304792707924</v>
+        <v>16.62304792707923</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>11.70666402511971</v>
+        <v>11.7066640251197</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>1.694961698545958</v>
+        <v>1.694961698545957</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56471,7 +56471,7 @@
         <v>7016</v>
       </c>
       <c r="B7016">
-        <v>7.570728299115337</v>
+        <v>7.570728299115336</v>
       </c>
     </row>
     <row r="7017" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>67.48019279385208</v>
+        <v>67.48019279385207</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>1.89239193445056</v>
+        <v>1.892391934450559</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>55.60935037287429</v>
+        <v>55.60935037287428</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>39.08512600003166</v>
+        <v>39.08512600003165</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56775,7 +56775,7 @@
         <v>7054</v>
       </c>
       <c r="B7054">
-        <v>21.99723809853166</v>
+        <v>21.99723809853165</v>
       </c>
     </row>
     <row r="7055" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>53.17334389952119</v>
+        <v>53.17334389952118</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>90.854659624365</v>
+        <v>90.85465962436498</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>81.04879574179505</v>
+        <v>81.04879574179503</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57119,7 +57119,7 @@
         <v>7097</v>
       </c>
       <c r="B7097">
-        <v>58.95944541581213</v>
+        <v>58.95944541581212</v>
       </c>
     </row>
     <row r="7098" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>53.97342783506666</v>
+        <v>53.97342783506665</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57199,7 +57199,7 @@
         <v>7107</v>
       </c>
       <c r="B7107">
-        <v>12.12329381368068</v>
+        <v>12.12329381368067</v>
       </c>
     </row>
     <row r="7108" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>47.83358957511148</v>
+        <v>47.83358957511147</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>92.79596218445776</v>
+        <v>92.79596218445774</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>102.9971788981819</v>
+        <v>102.9971788981818</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57415,7 +57415,7 @@
         <v>7134</v>
       </c>
       <c r="B7134">
-        <v>31.41076778164567</v>
+        <v>31.41076778164566</v>
       </c>
     </row>
     <row r="7135" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>84.55920064288064</v>
+        <v>84.55920064288063</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57519,7 +57519,7 @@
         <v>7147</v>
       </c>
       <c r="B7147">
-        <v>38.97024215287641</v>
+        <v>38.9702421528764</v>
       </c>
     </row>
     <row r="7148" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>7.001848105969799</v>
+        <v>7.001848105969798</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>4.973591368706226</v>
+        <v>4.973591368706225</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57855,7 +57855,7 @@
         <v>7189</v>
       </c>
       <c r="B7189">
-        <v>22.37116743675967</v>
+        <v>22.37116743675966</v>
       </c>
     </row>
     <row r="7190" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>7.560265663035127</v>
+        <v>7.560265663035126</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>0.6421245071277808</v>
+        <v>0.6421245071277807</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58071,7 +58071,7 @@
         <v>7216</v>
       </c>
       <c r="B7216">
-        <v>27.38634558585194</v>
+        <v>27.38634558585193</v>
       </c>
     </row>
     <row r="7217" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>40.35353745535796</v>
+        <v>40.35353745535795</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58303,7 +58303,7 @@
         <v>7245</v>
       </c>
       <c r="B7245">
-        <v>6.2711926994832</v>
+        <v>6.271192699483199</v>
       </c>
     </row>
     <row r="7246" spans="1:2">
@@ -58375,7 +58375,7 @@
         <v>7254</v>
       </c>
       <c r="B7254">
-        <v>0.3204321508307685</v>
+        <v>0.3204321508307684</v>
       </c>
     </row>
     <row r="7255" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>42.34847201552574</v>
+        <v>42.34847201552573</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>1.746548062771128</v>
+        <v>1.746548062771127</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>0.5621366285459398</v>
+        <v>0.5621366285459397</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>0.7940877020944616</v>
+        <v>0.7940877020944614</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>16.69174377854146</v>
+        <v>16.69174377854145</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>14.53526846186355</v>
+        <v>14.53526846186354</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>3.329492148919946</v>
+        <v>3.329492148919945</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>0.2319604518217589</v>
+        <v>0.2319604518217588</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>0.2222331309775502</v>
+        <v>0.2222331309775501</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>0.2529894711298651</v>
+        <v>0.252989471129865</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>63.58088262446288</v>
+        <v>63.58088262446287</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>1.347344278168963</v>
+        <v>1.347344278168962</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>4.542982091601112</v>
+        <v>4.542982091601111</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>0.7339114257261276</v>
+        <v>0.7339114257261274</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>23.95123063459845</v>
+        <v>23.95123063459844</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59775,7 +59775,7 @@
         <v>7429</v>
       </c>
       <c r="B7429">
-        <v>37.50811074099496</v>
+        <v>37.50811074099495</v>
       </c>
     </row>
     <row r="7430" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>39.86703953118013</v>
+        <v>39.86703953118012</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59863,7 +59863,7 @@
         <v>7440</v>
       </c>
       <c r="B7440">
-        <v>0.5390631456721321</v>
+        <v>0.539063145672132</v>
       </c>
     </row>
     <row r="7441" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>0.2434368206246985</v>
+        <v>0.2434368206246984</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>5.704129546777362</v>
+        <v>5.704129546777361</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>4.697694292910437</v>
+        <v>4.697694292910436</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>0.6542488559972006</v>
+        <v>0.6542488559972005</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>6.242559659005986</v>
+        <v>6.242559659005985</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>8.93693756004293</v>
+        <v>8.936937560042928</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>0.8270640553646361</v>
+        <v>0.827064055364636</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60439,7 +60439,7 @@
         <v>7512</v>
       </c>
       <c r="B7512">
-        <v>10.73680403687772</v>
+        <v>10.73680403687771</v>
       </c>
     </row>
     <row r="7513" spans="1:2">
@@ -60447,7 +60447,7 @@
         <v>7513</v>
       </c>
       <c r="B7513">
-        <v>7.524950602876435</v>
+        <v>7.524950602876434</v>
       </c>
     </row>
     <row r="7514" spans="1:2">
@@ -60487,7 +60487,7 @@
         <v>7518</v>
       </c>
       <c r="B7518">
-        <v>0.5407336505925018</v>
+        <v>0.5407336505925017</v>
       </c>
     </row>
     <row r="7519" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>5.50618936726549</v>
+        <v>5.506189367265489</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>6.314596520308944</v>
+        <v>6.314596520308943</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60783,7 +60783,7 @@
         <v>7555</v>
       </c>
       <c r="B7555">
-        <v>7.432457383074913</v>
+        <v>7.432457383074912</v>
       </c>
     </row>
     <row r="7556" spans="1:2">
@@ -60791,7 +60791,7 @@
         <v>7556</v>
       </c>
       <c r="B7556">
-        <v>7.118900678811141</v>
+        <v>7.11890067881114</v>
       </c>
     </row>
     <row r="7557" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>3.075692629439221</v>
+        <v>3.07569262943922</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>0.2337921458133923</v>
+        <v>0.2337921458133922</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60879,7 +60879,7 @@
         <v>7567</v>
       </c>
       <c r="B7567">
-        <v>0.2461990151640817</v>
+        <v>0.2461990151640816</v>
       </c>
     </row>
     <row r="7568" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>9.187777062033176</v>
+        <v>9.187777062033174</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>9.677469460532418</v>
+        <v>9.677469460532416</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>4.331531337206951</v>
+        <v>4.33153133720695</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>0.4082069269098414</v>
+        <v>0.4082069269098413</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>0.2326875610686777</v>
+        <v>0.2326875610686776</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>1.216490990117059</v>
+        <v>1.216490990117058</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>0.263145847974674</v>
+        <v>0.2631458479746739</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>0.1958576167111451</v>
+        <v>0.195857616711145</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>19.69276190732977</v>
+        <v>19.69276190732976</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>0.4440524456485106</v>
+        <v>0.4440524456485105</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>0.3816371065448039</v>
+        <v>0.3816371065448038</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61807,7 +61807,7 @@
         <v>7683</v>
       </c>
       <c r="B7683">
-        <v>0.3004095374694254</v>
+        <v>0.3004095374694253</v>
       </c>
     </row>
     <row r="7684" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>35.80859178779782</v>
+        <v>35.80859178779781</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>39.03149399995663</v>
+        <v>39.03149399995662</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>33.10823523757218</v>
+        <v>33.10823523757217</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>0.2869669550681068</v>
+        <v>0.2869669550681067</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>0.2194674195857031</v>
+        <v>0.219467419585703</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62135,7 +62135,7 @@
         <v>7724</v>
       </c>
       <c r="B7724">
-        <v>0.4735764220832545</v>
+        <v>0.4735764220832544</v>
       </c>
     </row>
     <row r="7725" spans="1:2">
@@ -62151,7 +62151,7 @@
         <v>7726</v>
       </c>
       <c r="B7726">
-        <v>0.4681487464472464</v>
+        <v>0.4681487464472463</v>
       </c>
     </row>
     <row r="7727" spans="1:2">
@@ -62711,7 +62711,7 @@
         <v>7796</v>
       </c>
       <c r="B7796">
-        <v>0.254812959132416</v>
+        <v>0.2548129591324159</v>
       </c>
     </row>
     <row r="7797" spans="1:2">
@@ -62919,7 +62919,7 @@
         <v>7822</v>
       </c>
       <c r="B7822">
-        <v>0.2437706285377338</v>
+        <v>0.2437706285377337</v>
       </c>
     </row>
     <row r="7823" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>0.2087905485762316</v>
+        <v>0.2087905485762315</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>0.8232863696762914</v>
+        <v>0.8232863696762913</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>28.12385885464322</v>
+        <v>28.12385885464321</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>0.6210497687376435</v>
+        <v>0.6210497687376434</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63303,7 +63303,7 @@
         <v>7870</v>
       </c>
       <c r="B7870">
-        <v>0.2091803330576512</v>
+        <v>0.2091803330576511</v>
       </c>
     </row>
     <row r="7871" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>2.063782808570101</v>
+        <v>2.0637828085701</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>0.3663300061955218</v>
+        <v>0.3663300061955217</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63759,7 +63759,7 @@
         <v>7927</v>
       </c>
       <c r="B7927">
-        <v>0.3010601551752536</v>
+        <v>0.3010601551752535</v>
       </c>
     </row>
     <row r="7928" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>3.360411143498718</v>
+        <v>3.360411143498717</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63887,7 +63887,7 @@
         <v>7943</v>
       </c>
       <c r="B7943">
-        <v>0.8562949607607188</v>
+        <v>0.8562949607607186</v>
       </c>
     </row>
     <row r="7944" spans="1:2">
@@ -63903,7 +63903,7 @@
         <v>7945</v>
       </c>
       <c r="B7945">
-        <v>0.2321515341389661</v>
+        <v>0.232151534138966</v>
       </c>
     </row>
     <row r="7946" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>0.1887611945809993</v>
+        <v>0.1887611945809992</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>27.26475041191135</v>
+        <v>27.26475041191134</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>2.687051125070411</v>
+        <v>2.68705112507041</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64223,7 +64223,7 @@
         <v>7985</v>
       </c>
       <c r="B7985">
-        <v>0.6118590609652237</v>
+        <v>0.6118590609652236</v>
       </c>
     </row>
     <row r="7986" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>0.3058753123404595</v>
+        <v>0.3058753123404594</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>0.2411124742170754</v>
+        <v>0.2411124742170753</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>0.2273903020448739</v>
+        <v>0.2273903020448738</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>0.3144652244836235</v>
+        <v>0.3144652244836234</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>0.497470503865314</v>
+        <v>0.4974705038653139</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>0.502353067369412</v>
+        <v>0.5023530673694119</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64567,7 +64567,7 @@
         <v>8028</v>
       </c>
       <c r="B8028">
-        <v>51.70066193024793</v>
+        <v>51.70066193024792</v>
       </c>
     </row>
     <row r="8029" spans="1:2">
@@ -64687,7 +64687,7 @@
         <v>8043</v>
       </c>
       <c r="B8043">
-        <v>0.1697452802374579</v>
+        <v>0.1697452802374578</v>
       </c>
     </row>
     <row r="8044" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>5.20215747175821</v>
+        <v>5.202157471758209</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>0.2951840808500936</v>
+        <v>0.2951840808500935</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>8.13319023651419</v>
+        <v>8.133190236514189</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>28.44740928132535</v>
+        <v>28.44740928132534</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>63.95747890914271</v>
+        <v>63.9574789091427</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65367,7 +65367,7 @@
         <v>8128</v>
       </c>
       <c r="B8128">
-        <v>54.06252143081971</v>
+        <v>54.0625214308197</v>
       </c>
     </row>
     <row r="8129" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>4.569710170327027</v>
+        <v>4.569710170327026</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>77.43903975860326</v>
+        <v>77.43903975860324</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65703,7 +65703,7 @@
         <v>8170</v>
       </c>
       <c r="B8170">
-        <v>48.09325051536543</v>
+        <v>48.09325051536542</v>
       </c>
     </row>
     <row r="8171" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>68.9426172767722</v>
+        <v>68.94261727677218</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>60.17188030275411</v>
+        <v>60.1718803027541</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>45.76743875254899</v>
+        <v>45.76743875254898</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>0.7494500521959521</v>
+        <v>0.749450052195952</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>0.7387588207055862</v>
+        <v>0.7387588207055861</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>3.105292804344017</v>
+        <v>3.105292804344016</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>0.8330485659741008</v>
+        <v>0.8330485659741007</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66047,7 +66047,7 @@
         <v>8213</v>
       </c>
       <c r="B8213">
-        <v>0.280054874621279</v>
+        <v>0.2800548746212789</v>
       </c>
     </row>
     <row r="8214" spans="1:2">
@@ -66143,7 +66143,7 @@
         <v>8225</v>
       </c>
       <c r="B8225">
-        <v>7.498310445462118</v>
+        <v>7.498310445462117</v>
       </c>
     </row>
     <row r="8226" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>3.281575034098816</v>
+        <v>3.281575034098815</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66223,7 +66223,7 @@
         <v>8235</v>
       </c>
       <c r="B8235">
-        <v>0.1618845288384833</v>
+        <v>0.1618845288384832</v>
       </c>
     </row>
     <row r="8236" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>0.1459552386741232</v>
+        <v>0.1459552386741231</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>17.81652111781984</v>
+        <v>17.81652111781983</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>22.01414829746242</v>
+        <v>22.01414829746241</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>0.4209496556708367</v>
+        <v>0.4209496556708366</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66423,7 +66423,7 @@
         <v>8260</v>
       </c>
       <c r="B8260">
-        <v>0.2584575905692085</v>
+        <v>0.2584575905692084</v>
       </c>
     </row>
     <row r="8261" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>0.3669102868520713</v>
+        <v>0.3669102868520712</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66599,7 +66599,7 @@
         <v>8282</v>
       </c>
       <c r="B8282">
-        <v>0.1891196204612821</v>
+        <v>0.189119620461282</v>
       </c>
     </row>
     <row r="8283" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>0.1464525802267315</v>
+        <v>0.1464525802267314</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>0.7363732224508829</v>
+        <v>0.7363732224508828</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>0.346108104527889</v>
+        <v>0.3461081045278889</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>0.2292507169982961</v>
+        <v>0.229250716998296</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>0.6679821648688713</v>
+        <v>0.6679821648688712</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>0.6932097198768399</v>
+        <v>0.6932097198768398</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>23.17130998651288</v>
+        <v>23.17130998651287</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>26.09352131300515</v>
+        <v>26.09352131300514</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>0.4030986987059742</v>
+        <v>0.4030986987059741</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>0.2621458895907615</v>
+        <v>0.2621458895907614</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>35.15387108742837</v>
+        <v>35.15387108742836</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>7.12186069630162</v>
+        <v>7.121860696301619</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>0.5208839491439688</v>
+        <v>0.5208839491439687</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>0.2703750312853334</v>
+        <v>0.2703750312853333</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>0.4630932710303382</v>
+        <v>0.4630932710303381</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>3.589475467316425</v>
+        <v>3.589475467316424</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68479,7 +68479,7 @@
         <v>8517</v>
       </c>
       <c r="B8517">
-        <v>5.004305213557936</v>
+        <v>5.004305213557935</v>
       </c>
     </row>
     <row r="8518" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>4.466549164718233</v>
+        <v>4.466549164718232</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>0.8959767793954648</v>
+        <v>0.8959767793954647</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68599,7 +68599,7 @@
         <v>8532</v>
       </c>
       <c r="B8532">
-        <v>0.8515560020655648</v>
+        <v>0.8515560020655647</v>
       </c>
     </row>
     <row r="8533" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>3.336731003574881</v>
+        <v>3.33673100357488</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>0.3385117032057869</v>
+        <v>0.3385117032057868</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>0.1201263018948215</v>
+        <v>0.1201263018948214</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70135,7 +70135,7 @@
         <v>8724</v>
       </c>
       <c r="B8724">
-        <v>8.867538338087924</v>
+        <v>8.867538338087922</v>
       </c>
     </row>
     <row r="8725" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>0.1713715314309897</v>
+        <v>0.1713715314309896</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
